--- a/scheduler_agent/excel.xlsx
+++ b/scheduler_agent/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bootstrap\scheduler_agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5DA892E-4DE2-4E55-9AAC-65C538841BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D202A1-3B72-4243-B842-4A5360A9600D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D1051C5-B5E8-4EE7-A59A-03C093F1694F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Customer</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t>Troca de modem</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
 </sst>
 </file>
@@ -453,10 +450,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -482,9 +483,7 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -496,6 +495,7 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -507,9 +507,7 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -533,9 +531,7 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="1"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -547,9 +543,7 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
+      <c r="D7" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scheduler_agent/excel.xlsx
+++ b/scheduler_agent/excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bootstrap\scheduler_agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D202A1-3B72-4243-B842-4A5360A9600D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2258FA5D-1F8D-421C-94ED-9317658C8F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D1051C5-B5E8-4EE7-A59A-03C093F1694F}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>Customer</t>
   </si>
@@ -62,32 +62,77 @@
     <t>João6</t>
   </si>
   <si>
-    <t>José1</t>
-  </si>
-  <si>
-    <t>José2</t>
-  </si>
-  <si>
-    <t>José3</t>
-  </si>
-  <si>
-    <t>José4</t>
-  </si>
-  <si>
-    <t>José5</t>
-  </si>
-  <si>
-    <t>José6</t>
-  </si>
-  <si>
     <t>Troca de modem</t>
+  </si>
+  <si>
+    <t>João7</t>
+  </si>
+  <si>
+    <t>João8</t>
+  </si>
+  <si>
+    <t>João9</t>
+  </si>
+  <si>
+    <t>João10</t>
+  </si>
+  <si>
+    <t>João11</t>
+  </si>
+  <si>
+    <t>João12</t>
+  </si>
+  <si>
+    <t>josé7</t>
+  </si>
+  <si>
+    <t>josé8</t>
+  </si>
+  <si>
+    <t>josé9</t>
+  </si>
+  <si>
+    <t>josé10</t>
+  </si>
+  <si>
+    <t>josé11</t>
+  </si>
+  <si>
+    <t>josé12</t>
+  </si>
+  <si>
+    <t>afsdf</t>
+  </si>
+  <si>
+    <t>sdfs</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>josé1</t>
+  </si>
+  <si>
+    <t>josé2</t>
+  </si>
+  <si>
+    <t>josé3</t>
+  </si>
+  <si>
+    <t>josé4</t>
+  </si>
+  <si>
+    <t>josé5</t>
+  </si>
+  <si>
+    <t>josé6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +142,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -127,14 +186,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -447,19 +510,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9276531-14EB-4100-A758-83B3B23EE907}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,77 +536,156 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1">
+        <v>224322</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>34343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/scheduler_agent/excel.xlsx
+++ b/scheduler_agent/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bootstrap\scheduler_agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2258FA5D-1F8D-421C-94ED-9317658C8F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F6C13-493A-47B1-AB32-2CDB154A277A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D1051C5-B5E8-4EE7-A59A-03C093F1694F}"/>
+    <workbookView xWindow="22050" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{6D1051C5-B5E8-4EE7-A59A-03C093F1694F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,109 +30,58 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
-  <si>
-    <t>Customer</t>
-  </si>
-  <si>
-    <t>Supplier</t>
-  </si>
-  <si>
-    <t>Task</t>
-  </si>
-  <si>
-    <t>Datetime</t>
-  </si>
-  <si>
-    <t>João1</t>
-  </si>
-  <si>
-    <t>João2</t>
-  </si>
-  <si>
-    <t>João3</t>
-  </si>
-  <si>
-    <t>João4</t>
-  </si>
-  <si>
-    <t>João5</t>
-  </si>
-  <si>
-    <t>João6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Troca de modem</t>
   </si>
   <si>
-    <t>João7</t>
-  </si>
-  <si>
-    <t>João8</t>
-  </si>
-  <si>
-    <t>João9</t>
-  </si>
-  <si>
-    <t>João10</t>
-  </si>
-  <si>
-    <t>João11</t>
-  </si>
-  <si>
-    <t>João12</t>
-  </si>
-  <si>
-    <t>josé7</t>
-  </si>
-  <si>
-    <t>josé8</t>
-  </si>
-  <si>
-    <t>josé9</t>
-  </si>
-  <si>
-    <t>josé10</t>
-  </si>
-  <si>
-    <t>josé11</t>
-  </si>
-  <si>
-    <t>josé12</t>
-  </si>
-  <si>
-    <t>afsdf</t>
-  </si>
-  <si>
-    <t>sdfs</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>josé1</t>
-  </si>
-  <si>
-    <t>josé2</t>
-  </si>
-  <si>
-    <t>josé3</t>
-  </si>
-  <si>
-    <t>josé4</t>
-  </si>
-  <si>
-    <t>josé5</t>
-  </si>
-  <si>
-    <t>josé6</t>
+    <t>5d8b8495a3b6d91aac6c4ef7</t>
+  </si>
+  <si>
+    <t>5d8b8498a3b6d91aac6c4efb</t>
+  </si>
+  <si>
+    <t>5d8b8497a3b6d91aac6c4ef9</t>
+  </si>
+  <si>
+    <t>5d8b9232da09856b00edc270</t>
+  </si>
+  <si>
+    <t>5d8b9234da09856b00edc272</t>
+  </si>
+  <si>
+    <t>5d8b9235da09856b00edc274</t>
+  </si>
+  <si>
+    <t>5d8b9237da09856b00edc276</t>
+  </si>
+  <si>
+    <t>5d8b9243da09856b00edc286</t>
+  </si>
+  <si>
+    <t>5d8b9241da09856b00edc284</t>
+  </si>
+  <si>
+    <t>5d8b923bda09856b00edc27c</t>
+  </si>
+  <si>
+    <t>5d8b9238da09856b00edc278</t>
+  </si>
+  <si>
+    <t>5d825b88b6c09ea9e6d9c732</t>
+  </si>
+  <si>
+    <t>5d825b8be9cd71126f8b64b0</t>
+  </si>
+  <si>
+    <t>5d825b61f00ed355f07f94d2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,20 +91,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,18 +121,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,181 +443,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9276531-14EB-4100-A758-83B3B23EE907}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="28.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43744</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>43745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43746</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43747</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="1">
-        <v>224322</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="2">
-        <v>34343</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43756</v>
       </c>
     </row>
   </sheetData>

--- a/scheduler_agent/excel.xlsx
+++ b/scheduler_agent/excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Bootstrap\scheduler_agent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{352F6C13-493A-47B1-AB32-2CDB154A277A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF90C99-059D-46BE-8401-327ABD7665A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22050" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{6D1051C5-B5E8-4EE7-A59A-03C093F1694F}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7875" xr2:uid="{6D1051C5-B5E8-4EE7-A59A-03C093F1694F}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>Troca de modem</t>
   </si>
@@ -124,11 +124,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9276531-14EB-4100-A758-83B3B23EE907}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -468,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="2">
-        <v>43744</v>
+        <v>43759</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -482,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2">
-        <v>43745</v>
+        <v>43760</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -496,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <v>43746</v>
+        <v>43761</v>
       </c>
       <c r="F3" s="1"/>
     </row>
@@ -511,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2">
-        <v>43747</v>
+        <v>43761</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -573,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="2"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -586,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2">
-        <v>43753</v>
+        <v>43759</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -600,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="2">
-        <v>43754</v>
+        <v>43760</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,22 +615,11 @@
         <v>0</v>
       </c>
       <c r="D12" s="2">
-        <v>43755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43756</v>
-      </c>
+        <v>43761</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
